--- a/excel/files_11_data_visualization/file02_radar_chart.xlsx
+++ b/excel/files_11_data_visualization/file02_radar_chart.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis_bml-r/data_analysis_bml/excel/files_11_data_visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA6C118E-3E64-4277-AE51-FEFBD701EA96}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A22F9C-287E-4B20-BA96-FD920D27E7C6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="radar data" sheetId="1" r:id="rId1"/>
     <sheet name="radar plot" sheetId="2" r:id="rId2"/>
+    <sheet name="radar data transposed" sheetId="3" r:id="rId3"/>
+    <sheet name="radar plot transposed data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Row Labels</t>
   </si>
@@ -494,6 +493,677 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-88FC-43E2-9BD3-E680E775DE15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424009135"/>
+        <c:axId val="424007471"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="424009135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424007471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424007471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424009135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Different protein quantification methods compared</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'radar data transposed'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lowry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'radar data transposed'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sample 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sample 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sample 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'radar data transposed'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D8F-425F-A302-6E53436B2364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'radar data transposed'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bradford</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'radar data transposed'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sample 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sample 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sample 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'radar data transposed'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D8F-425F-A302-6E53436B2364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'radar data transposed'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'radar data transposed'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sample 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sample 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sample 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'radar data transposed'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D8F-425F-A302-6E53436B2364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'radar data transposed'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UV/VIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'radar data transposed'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sample 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sample 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sample 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'radar data transposed'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6D8F-425F-A302-6E53436B2364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'radar data transposed'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kjedahl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'radar data transposed'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sample 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sample 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sample 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'radar data transposed'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6D8F-425F-A302-6E53436B2364}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -738,7 +1408,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1286,184 +2501,47 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="menu"/>
-      <sheetName val="pivot table"/>
-      <sheetName val="single column"/>
-      <sheetName val="clustered column"/>
-      <sheetName val="stacked"/>
-      <sheetName val="stacked relative"/>
-      <sheetName val="pie"/>
-      <sheetName val="pie_perc"/>
-      <sheetName val="pie of pie"/>
-      <sheetName val="radar_data"/>
-      <sheetName val="radar_chart"/>
-      <sheetName val="box_plot_data_plot"/>
-      <sheetName val="box_plot_data_plot2"/>
-      <sheetName val="XY-scatter"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Restaurant A</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Restaurant B</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Restaurant C</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Beef &amp; Pork</v>
-          </cell>
-          <cell r="B3">
-            <v>494</v>
-          </cell>
-          <cell r="C3">
-            <v>315</v>
-          </cell>
-          <cell r="D3">
-            <v>605</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Beverages</v>
-          </cell>
-          <cell r="B4">
-            <v>113.70370370370371</v>
-          </cell>
-          <cell r="C4">
-            <v>80</v>
-          </cell>
-          <cell r="D4">
-            <v>145</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Breakfast</v>
-          </cell>
-          <cell r="B5">
-            <v>526.66666666666663</v>
-          </cell>
-          <cell r="C5">
-            <v>450</v>
-          </cell>
-          <cell r="D5">
-            <v>650</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Chicken &amp; Fish</v>
-          </cell>
-          <cell r="B6">
-            <v>552.96296296296293</v>
-          </cell>
-          <cell r="C6">
-            <v>432</v>
-          </cell>
-          <cell r="D6">
-            <v>350</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Coffee &amp; Tea</v>
-          </cell>
-          <cell r="B7">
-            <v>283.89473684210526</v>
-          </cell>
-          <cell r="C7">
-            <v>234</v>
-          </cell>
-          <cell r="D7">
-            <v>345</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Desserts</v>
-          </cell>
-          <cell r="B8">
-            <v>222.14285714285714</v>
-          </cell>
-          <cell r="C8">
-            <v>634</v>
-          </cell>
-          <cell r="D8">
-            <v>287</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Salads</v>
-          </cell>
-          <cell r="B9">
-            <v>270</v>
-          </cell>
-          <cell r="C9">
-            <v>240</v>
-          </cell>
-          <cell r="D9">
-            <v>321</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Smoothies &amp; Shakes</v>
-          </cell>
-          <cell r="B10">
-            <v>531.42857142857144</v>
-          </cell>
-          <cell r="C10">
-            <v>589</v>
-          </cell>
-          <cell r="D10">
-            <v>511</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Snacks &amp; Sides</v>
-          </cell>
-          <cell r="B11">
-            <v>245.76923076923077</v>
-          </cell>
-          <cell r="C11">
-            <v>200</v>
-          </cell>
-          <cell r="D11">
-            <v>321</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>372533</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE6D7A1-6E11-4D14-AB67-8AE6897E72EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1732,7 +2810,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1845,4 +2923,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6490461-313E-4AD2-AF7E-606F682AD150}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>240</v>
+      </c>
+      <c r="C2" s="3">
+        <v>260</v>
+      </c>
+      <c r="D2">
+        <v>254</v>
+      </c>
+      <c r="E2">
+        <v>276</v>
+      </c>
+      <c r="F2" s="3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>266</v>
+      </c>
+      <c r="C3" s="3">
+        <v>265</v>
+      </c>
+      <c r="D3">
+        <v>254</v>
+      </c>
+      <c r="E3">
+        <v>266</v>
+      </c>
+      <c r="F3" s="3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>146.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>138.5</v>
+      </c>
+      <c r="D4">
+        <v>139</v>
+      </c>
+      <c r="E4">
+        <v>149</v>
+      </c>
+      <c r="F4" s="3">
+        <v>268.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5780E56-ACBB-4F1C-8198-CE35047863A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>